--- a/docs/M133_Testing_baechli_felix.xlsx
+++ b/docs/M133_Testing_baechli_felix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Documents\GitHub\Critterpedia\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0391C0FE-6F5B-4DA5-89B5-FC0A4441DACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F046B-AB42-4CDD-BC87-0C7B17CAB925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -219,9 +219,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -244,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -528,7 +528,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -541,13 +541,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
@@ -561,7 +561,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>43994</v>
       </c>
     </row>
@@ -569,7 +569,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>43994</v>
       </c>
     </row>
@@ -582,203 +582,203 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>10</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>13</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>14</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>15</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/M133_Testing_baechli_felix.xlsx
+++ b/docs/M133_Testing_baechli_felix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Documents\GitHub\Critterpedia\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9F046B-AB42-4CDD-BC87-0C7B17CAB925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCFF703-4191-4A05-B4EB-E4352632F069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
   <si>
     <t>Testing</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>wird daraug hingewiesen, dass Benutzername schon vergeben ist</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
 </sst>
 </file>
@@ -527,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -570,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>43994</v>
+        <v>44021</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -608,8 +611,12 @@
       <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
@@ -621,8 +628,12 @@
       <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
@@ -634,8 +645,12 @@
       <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
@@ -647,8 +662,12 @@
       <c r="C13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
@@ -660,8 +679,12 @@
       <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
@@ -673,8 +696,12 @@
       <c r="C15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
+      <c r="D15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
@@ -686,8 +713,12 @@
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
@@ -699,10 +730,14 @@
       <c r="C17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -712,8 +747,12 @@
       <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
@@ -725,8 +764,12 @@
       <c r="C19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
@@ -738,8 +781,14 @@
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="D20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -748,6 +797,12 @@
       </c>
       <c r="C21" s="9" t="s">
         <v>34</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.5">

--- a/docs/M133_Testing_baechli_felix.xlsx
+++ b/docs/M133_Testing_baechli_felix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Documents\GitHub\Critterpedia\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCFF703-4191-4A05-B4EB-E4352632F069}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19820F1-A5A3-4E63-8182-8CA6813831EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -840,5 +840,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>